--- a/lab4/zadania_dziel_i_rzadz.xlsx
+++ b/lab4/zadania_dziel_i_rzadz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!_Grazyna\WSIZ_PRACA\2021_2022_LATO_WSIZ\Algorytmy i struktury danych\LABORATORIA\ZAOCZNE\LAB3\quicksort mergesort\pliki_do_zadan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piotr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF59FB7-6C22-4913-BB28-322F254B3CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECE1D6F-37AB-4356-AF74-2844BF7A6853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="270" windowWidth="29040" windowHeight="15330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zadanie_1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="21">
   <si>
     <t>l</t>
   </si>
@@ -86,12 +86,18 @@
   <si>
     <t>Poziom</t>
   </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,8 +162,33 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,8 +230,24 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -236,12 +283,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -293,16 +368,132 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Dane wejściowe" xfId="3" builtinId="20"/>
     <cellStyle name="Dobry" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutralny" xfId="2" builtinId="28"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2646,10 +2837,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="282C34"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="D8DEE9"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2906,9 +3097,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="G2:AG42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+    <sheetView zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2972,40 +3163,52 @@
       </c>
     </row>
     <row r="3" spans="7:25" x14ac:dyDescent="0.25">
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="O3" s="18">
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>9</v>
+      </c>
+      <c r="I3" s="6">
+        <v>55</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="24">
         <v>42</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="24">
         <v>68</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="24">
         <v>35</v>
       </c>
-      <c r="R3" s="18">
+      <c r="R3" s="24">
         <v>65</v>
       </c>
-      <c r="S3" s="18">
+      <c r="S3" s="24">
         <v>1</v>
       </c>
-      <c r="T3" s="18">
+      <c r="T3" s="24">
         <v>25</v>
       </c>
-      <c r="U3" s="18">
+      <c r="U3" s="24">
         <v>79</v>
       </c>
-      <c r="V3" s="18">
+      <c r="V3" s="24">
         <v>59</v>
       </c>
-      <c r="W3" s="18">
+      <c r="W3" s="24">
         <v>70</v>
       </c>
-      <c r="X3" s="18">
+      <c r="X3" s="24">
         <v>55</v>
       </c>
     </row>
@@ -3013,230 +3216,835 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="O4"/>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="18">
+        <v>42</v>
+      </c>
+      <c r="P4" s="20">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>35</v>
+      </c>
+      <c r="R4" s="20">
+        <v>65</v>
+      </c>
+      <c r="S4" s="20">
+        <v>1</v>
+      </c>
+      <c r="T4" s="20">
+        <v>25</v>
+      </c>
+      <c r="U4" s="20">
+        <v>79</v>
+      </c>
+      <c r="V4" s="20">
+        <v>59</v>
+      </c>
+      <c r="W4" s="20">
+        <v>70</v>
+      </c>
+      <c r="X4" s="20">
+        <v>55</v>
+      </c>
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="7:25" x14ac:dyDescent="0.25">
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="O5"/>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
+        <v>2</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="20">
+        <v>42</v>
+      </c>
+      <c r="P5" s="21">
+        <v>68</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>35</v>
+      </c>
+      <c r="R5" s="20">
+        <v>65</v>
+      </c>
+      <c r="S5" s="20">
+        <v>1</v>
+      </c>
+      <c r="T5" s="20">
+        <v>25</v>
+      </c>
+      <c r="U5" s="20">
+        <v>79</v>
+      </c>
+      <c r="V5" s="20">
+        <v>59</v>
+      </c>
+      <c r="W5" s="20">
+        <v>70</v>
+      </c>
+      <c r="X5" s="20">
+        <v>55</v>
+      </c>
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="7:25" x14ac:dyDescent="0.25">
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="O6"/>
+      <c r="J6" s="6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="6">
+        <v>3</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="20">
+        <v>42</v>
+      </c>
+      <c r="P6" s="18">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>68</v>
+      </c>
+      <c r="R6" s="20">
+        <v>65</v>
+      </c>
+      <c r="S6" s="20">
+        <v>1</v>
+      </c>
+      <c r="T6" s="20">
+        <v>25</v>
+      </c>
+      <c r="U6" s="20">
+        <v>79</v>
+      </c>
+      <c r="V6" s="20">
+        <v>59</v>
+      </c>
+      <c r="W6" s="20">
+        <v>70</v>
+      </c>
+      <c r="X6" s="20">
+        <v>55</v>
+      </c>
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="7:25" x14ac:dyDescent="0.25">
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="O7"/>
+      <c r="J7" s="6">
+        <v>2</v>
+      </c>
+      <c r="K7" s="6">
+        <v>4</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="20">
+        <v>42</v>
+      </c>
+      <c r="P7" s="20">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>68</v>
+      </c>
+      <c r="R7" s="20">
+        <v>65</v>
+      </c>
+      <c r="S7" s="21">
+        <v>1</v>
+      </c>
+      <c r="T7" s="20">
+        <v>25</v>
+      </c>
+      <c r="U7" s="20">
+        <v>79</v>
+      </c>
+      <c r="V7" s="20">
+        <v>59</v>
+      </c>
+      <c r="W7" s="20">
+        <v>70</v>
+      </c>
+      <c r="X7" s="20">
+        <v>55</v>
+      </c>
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="7:25" x14ac:dyDescent="0.25">
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="O8"/>
+      <c r="J8" s="6">
+        <v>3</v>
+      </c>
+      <c r="K8" s="6">
+        <v>5</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="20">
+        <v>42</v>
+      </c>
+      <c r="P8" s="20">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>1</v>
+      </c>
+      <c r="R8" s="20">
+        <v>65</v>
+      </c>
+      <c r="S8" s="18">
+        <v>68</v>
+      </c>
+      <c r="T8" s="20">
+        <v>25</v>
+      </c>
+      <c r="U8" s="20">
+        <v>79</v>
+      </c>
+      <c r="V8" s="20">
+        <v>59</v>
+      </c>
+      <c r="W8" s="20">
+        <v>70</v>
+      </c>
+      <c r="X8" s="20">
+        <v>55</v>
+      </c>
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="7:25" x14ac:dyDescent="0.25">
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="O9"/>
+      <c r="J9" s="6">
+        <v>4</v>
+      </c>
+      <c r="K9" s="6">
+        <v>6</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="20">
+        <v>42</v>
+      </c>
+      <c r="P9" s="20">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>1</v>
+      </c>
+      <c r="R9" s="20">
+        <v>65</v>
+      </c>
+      <c r="S9" s="20">
+        <v>68</v>
+      </c>
+      <c r="T9" s="20">
+        <v>25</v>
+      </c>
+      <c r="U9" s="20">
+        <v>79</v>
+      </c>
+      <c r="V9" s="20">
+        <v>59</v>
+      </c>
+      <c r="W9" s="20">
+        <v>70</v>
+      </c>
+      <c r="X9" s="20">
+        <v>55</v>
+      </c>
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="7:25" x14ac:dyDescent="0.25">
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="O10"/>
+      <c r="J10" s="6">
+        <v>4</v>
+      </c>
+      <c r="K10" s="6">
+        <v>7</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="20">
+        <v>42</v>
+      </c>
+      <c r="P10" s="20">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>1</v>
+      </c>
+      <c r="R10" s="21">
+        <v>65</v>
+      </c>
+      <c r="S10" s="20">
+        <v>68</v>
+      </c>
+      <c r="T10" s="21">
+        <v>25</v>
+      </c>
+      <c r="U10" s="20">
+        <v>79</v>
+      </c>
+      <c r="V10" s="20">
+        <v>59</v>
+      </c>
+      <c r="W10" s="20">
+        <v>70</v>
+      </c>
+      <c r="X10" s="20">
+        <v>55</v>
+      </c>
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="7:25" x14ac:dyDescent="0.25">
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="O11"/>
+      <c r="J11" s="6">
+        <v>4</v>
+      </c>
+      <c r="K11" s="6">
+        <v>8</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="20">
+        <v>42</v>
+      </c>
+      <c r="P11" s="20">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>1</v>
+      </c>
+      <c r="R11" s="22">
+        <v>25</v>
+      </c>
+      <c r="S11" s="20">
+        <v>68</v>
+      </c>
+      <c r="T11" s="18">
+        <v>65</v>
+      </c>
+      <c r="U11" s="20">
+        <v>79</v>
+      </c>
+      <c r="V11" s="20">
+        <v>59</v>
+      </c>
+      <c r="W11" s="20">
+        <v>70</v>
+      </c>
+      <c r="X11" s="20">
+        <v>55</v>
+      </c>
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="7:25" x14ac:dyDescent="0.25">
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="O12"/>
+      <c r="J12" s="6">
+        <v>4</v>
+      </c>
+      <c r="K12" s="6">
+        <v>9</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="20">
+        <v>42</v>
+      </c>
+      <c r="P12" s="20">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>1</v>
+      </c>
+      <c r="R12" s="23">
+        <v>25</v>
+      </c>
+      <c r="S12" s="21">
+        <v>68</v>
+      </c>
+      <c r="T12" s="20">
+        <v>65</v>
+      </c>
+      <c r="U12" s="20">
+        <v>79</v>
+      </c>
+      <c r="V12" s="20">
+        <v>59</v>
+      </c>
+      <c r="W12" s="20">
+        <v>70</v>
+      </c>
+      <c r="X12" s="21">
+        <v>55</v>
+      </c>
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="7:25" x14ac:dyDescent="0.25">
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="O13"/>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>3</v>
+      </c>
+      <c r="I13" s="6">
+        <v>25</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="24">
+        <v>42</v>
+      </c>
+      <c r="P13" s="24">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="24">
+        <v>1</v>
+      </c>
+      <c r="R13" s="25">
+        <v>25</v>
+      </c>
+      <c r="S13" s="24">
+        <v>55</v>
+      </c>
+      <c r="T13" s="24">
+        <v>65</v>
+      </c>
+      <c r="U13" s="24">
+        <v>79</v>
+      </c>
+      <c r="V13" s="24">
+        <v>59</v>
+      </c>
+      <c r="W13" s="24">
+        <v>70</v>
+      </c>
+      <c r="X13" s="24">
+        <v>68</v>
+      </c>
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="7:25" x14ac:dyDescent="0.25">
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="O14"/>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="26">
+        <v>42</v>
+      </c>
+      <c r="P14" s="26">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="26">
+        <v>1</v>
+      </c>
+      <c r="R14" s="27">
+        <v>25</v>
+      </c>
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="7:25" x14ac:dyDescent="0.25">
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="O15"/>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>2</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="21">
+        <v>42</v>
+      </c>
+      <c r="P15" s="26">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>1</v>
+      </c>
+      <c r="R15" s="27">
+        <v>25</v>
+      </c>
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="7:25" x14ac:dyDescent="0.25">
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="O16"/>
+      <c r="J16" s="6">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6">
+        <v>3</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="22">
+        <v>1</v>
+      </c>
+      <c r="P16" s="32">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="18">
+        <v>42</v>
+      </c>
+      <c r="R16" s="27">
+        <v>25</v>
+      </c>
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="7:25" x14ac:dyDescent="0.25">
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="O17"/>
+      <c r="O17" s="23">
+        <v>1</v>
+      </c>
+      <c r="P17" s="33">
+        <v>35</v>
+      </c>
+      <c r="Q17" s="20">
+        <v>42</v>
+      </c>
+      <c r="R17" s="29">
+        <v>25</v>
+      </c>
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="7:25" x14ac:dyDescent="0.25">
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="O18"/>
+      <c r="G18" s="6">
+        <v>2</v>
+      </c>
+      <c r="H18" s="6">
+        <v>3</v>
+      </c>
+      <c r="I18" s="6">
+        <v>35</v>
+      </c>
+      <c r="J18" s="6">
+        <v>2</v>
+      </c>
+      <c r="K18" s="6">
+        <v>2</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="25">
+        <v>1</v>
+      </c>
+      <c r="P18" s="34">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="25">
+        <v>42</v>
+      </c>
+      <c r="R18" s="25">
+        <v>35</v>
+      </c>
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="7:25" x14ac:dyDescent="0.25">
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="O19"/>
+      <c r="J19" s="6">
+        <v>2</v>
+      </c>
+      <c r="K19" s="6">
+        <v>3</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="7:25" x14ac:dyDescent="0.25">
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="G20" s="6">
+        <v>3</v>
+      </c>
+      <c r="H20" s="6">
+        <v>3</v>
+      </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="O20"/>
+      <c r="Q20" s="30">
+        <v>42</v>
+      </c>
+      <c r="R20" s="30">
+        <v>35</v>
+      </c>
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="7:25" x14ac:dyDescent="0.25">
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="G21" s="6">
+        <v>5</v>
+      </c>
+      <c r="H21" s="6">
+        <v>9</v>
+      </c>
+      <c r="I21" s="6">
+        <v>68</v>
+      </c>
+      <c r="J21" s="6">
+        <v>5</v>
+      </c>
+      <c r="K21" s="6">
+        <v>5</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="O21"/>
+      <c r="Q21" s="29">
+        <v>42</v>
+      </c>
+      <c r="R21" s="29">
+        <v>35</v>
+      </c>
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="7:25" x14ac:dyDescent="0.25">
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="O22"/>
+      <c r="J22" s="6">
+        <v>6</v>
+      </c>
+      <c r="K22" s="6">
+        <v>6</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="25">
+        <v>1</v>
+      </c>
+      <c r="P22" s="25">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="25">
+        <v>35</v>
+      </c>
+      <c r="R22" s="25">
+        <v>42</v>
+      </c>
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="7:25" x14ac:dyDescent="0.25">
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="O23"/>
+      <c r="J23" s="6">
+        <v>6</v>
+      </c>
+      <c r="K23" s="6">
+        <v>7</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23" s="35"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="27">
+        <v>55</v>
+      </c>
+      <c r="T23" s="27">
+        <v>65</v>
+      </c>
+      <c r="U23" s="27">
+        <v>79</v>
+      </c>
+      <c r="V23" s="27">
+        <v>59</v>
+      </c>
+      <c r="W23" s="27">
+        <v>70</v>
+      </c>
+      <c r="X23" s="27">
+        <v>68</v>
+      </c>
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="7:25" x14ac:dyDescent="0.25">
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="J24" s="6">
+        <v>7</v>
+      </c>
+      <c r="K24" s="6">
+        <v>8</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="O24"/>
+      <c r="S24" s="27">
+        <v>55</v>
+      </c>
+      <c r="T24" s="29">
+        <v>65</v>
+      </c>
+      <c r="U24" s="27">
+        <v>79</v>
+      </c>
+      <c r="V24" s="27">
+        <v>59</v>
+      </c>
+      <c r="W24" s="27">
+        <v>70</v>
+      </c>
+      <c r="X24" s="27">
+        <v>68</v>
+      </c>
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="7:25" x14ac:dyDescent="0.25">
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="J25" s="6">
+        <v>7</v>
+      </c>
+      <c r="K25" s="6">
+        <v>9</v>
+      </c>
       <c r="L25" s="6"/>
       <c r="O25"/>
+      <c r="S25" s="27">
+        <v>55</v>
+      </c>
+      <c r="T25" s="23">
+        <v>65</v>
+      </c>
+      <c r="U25" s="29">
+        <v>79</v>
+      </c>
+      <c r="V25" s="29">
+        <v>59</v>
+      </c>
+      <c r="W25" s="27">
+        <v>70</v>
+      </c>
+      <c r="X25" s="27">
+        <v>68</v>
+      </c>
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="7:25" x14ac:dyDescent="0.25">
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="G26" s="6">
+        <v>5</v>
+      </c>
+      <c r="H26" s="6">
+        <v>6</v>
+      </c>
+      <c r="I26" s="6">
+        <v>59</v>
+      </c>
+      <c r="J26" s="6">
+        <v>5</v>
+      </c>
+      <c r="K26" s="6">
+        <v>5</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="O26"/>
+      <c r="S26" s="27">
+        <v>55</v>
+      </c>
+      <c r="T26" s="23">
+        <v>65</v>
+      </c>
+      <c r="U26" s="22">
+        <v>59</v>
+      </c>
+      <c r="V26" s="22">
+        <v>79</v>
+      </c>
+      <c r="W26" s="27">
+        <v>70</v>
+      </c>
+      <c r="X26" s="27">
+        <v>68</v>
+      </c>
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="7:25" x14ac:dyDescent="0.25">
@@ -3247,6 +4055,24 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="O27"/>
+      <c r="S27" s="27">
+        <v>55</v>
+      </c>
+      <c r="T27" s="23">
+        <v>65</v>
+      </c>
+      <c r="U27" s="23">
+        <v>59</v>
+      </c>
+      <c r="V27" s="29">
+        <v>79</v>
+      </c>
+      <c r="W27" s="27">
+        <v>70</v>
+      </c>
+      <c r="X27" s="29">
+        <v>68</v>
+      </c>
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="7:25" x14ac:dyDescent="0.25">
@@ -3257,6 +4083,24 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="O28"/>
+      <c r="S28" s="27">
+        <v>55</v>
+      </c>
+      <c r="T28" s="23">
+        <v>65</v>
+      </c>
+      <c r="U28" s="23">
+        <v>59</v>
+      </c>
+      <c r="V28" s="22">
+        <v>68</v>
+      </c>
+      <c r="W28" s="27">
+        <v>70</v>
+      </c>
+      <c r="X28" s="22">
+        <v>79</v>
+      </c>
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="7:25" x14ac:dyDescent="0.25">
@@ -3267,6 +4111,24 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="O29"/>
+      <c r="S29" s="25">
+        <v>55</v>
+      </c>
+      <c r="T29" s="25">
+        <v>65</v>
+      </c>
+      <c r="U29" s="25">
+        <v>59</v>
+      </c>
+      <c r="V29" s="25">
+        <v>68</v>
+      </c>
+      <c r="W29" s="25">
+        <v>70</v>
+      </c>
+      <c r="X29" s="25">
+        <v>79</v>
+      </c>
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="7:25" x14ac:dyDescent="0.25">
@@ -3277,6 +4139,12 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="O30"/>
+      <c r="T30" s="27">
+        <v>65</v>
+      </c>
+      <c r="U30" s="27">
+        <v>59</v>
+      </c>
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="7:25" x14ac:dyDescent="0.25">
@@ -3287,6 +4155,12 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="O31"/>
+      <c r="T31" s="29">
+        <v>65</v>
+      </c>
+      <c r="U31" s="29">
+        <v>59</v>
+      </c>
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="7:25" x14ac:dyDescent="0.25">
@@ -3297,6 +4171,12 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="O32"/>
+      <c r="T32" s="25">
+        <v>59</v>
+      </c>
+      <c r="U32" s="25">
+        <v>65</v>
+      </c>
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="7:25" x14ac:dyDescent="0.25">
@@ -3306,7 +4186,36 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="O33"/>
+      <c r="O33" s="28">
+        <v>1</v>
+      </c>
+      <c r="P33" s="28">
+        <v>25</v>
+      </c>
+      <c r="Q33" s="28">
+        <v>35</v>
+      </c>
+      <c r="R33" s="28">
+        <v>42</v>
+      </c>
+      <c r="S33" s="28">
+        <v>55</v>
+      </c>
+      <c r="T33" s="28">
+        <v>59</v>
+      </c>
+      <c r="U33" s="28">
+        <v>65</v>
+      </c>
+      <c r="V33" s="28">
+        <v>68</v>
+      </c>
+      <c r="W33" s="28">
+        <v>70</v>
+      </c>
+      <c r="X33" s="28">
+        <v>79</v>
+      </c>
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="7:25" x14ac:dyDescent="0.25">
@@ -3361,8 +4270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A386B8C8-8861-47A7-ABDE-092DF3CBCA48}">
   <dimension ref="A2:AE29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X41" sqref="X41"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3426,9 +4335,15 @@
       <c r="H3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>9</v>
+      </c>
+      <c r="K3" s="2">
+        <v>5</v>
+      </c>
       <c r="P3" s="2">
         <v>42</v>
       </c>
@@ -3472,9 +4387,15 @@
       <c r="H5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2</v>
+      </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -3490,19 +4411,43 @@
       <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>9</v>
+      </c>
       <c r="K6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
+      <c r="P6" s="2">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>68</v>
+      </c>
+      <c r="R6" s="2">
+        <v>35</v>
+      </c>
+      <c r="S6" s="2">
+        <v>65</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1</v>
+      </c>
+      <c r="V6" s="2">
+        <v>25</v>
+      </c>
+      <c r="W6" s="2">
+        <v>79</v>
+      </c>
+      <c r="X6" s="2">
+        <v>59</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>55</v>
+      </c>
       <c r="AE6" s="1">
         <v>2</v>
       </c>
